--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\elec\BTC\MEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="195" yWindow="90" windowWidth="17220" windowHeight="8205" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BTC" sheetId="3" r:id="rId3"/>
+    <sheet name="Transmission Lines" sheetId="4" r:id="rId2"/>
+    <sheet name="TL Calculations" sheetId="7" r:id="rId3"/>
+    <sheet name="TL New Projects" sheetId="6" r:id="rId4"/>
+    <sheet name="BTC" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>BTC BAU Transmission Capacity</t>
   </si>
@@ -24,62 +31,388 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>I/2014</t>
-  </si>
-  <si>
-    <t>Líneas de Transmisión en CFE</t>
-  </si>
-  <si>
-    <t>Líneas de Transmisión de 400 KV en CFE</t>
-  </si>
-  <si>
-    <t>Líneas de Transmisión de 230 KV en CFE</t>
-  </si>
-  <si>
-    <t>Líneas de Transmisión Menores de 230 KV en CFE</t>
-  </si>
-  <si>
-    <t>kV*km</t>
-  </si>
-  <si>
-    <t>BAU Transmission Capacity (kV-km)</t>
-  </si>
-  <si>
-    <t>Secretarìa de Energìa</t>
-  </si>
-  <si>
-    <t>Sistema de Informaciòn Energètica</t>
-  </si>
-  <si>
-    <t>http://sie.energia.gob.mx/bdiController.do?action=cuadro&amp;subAction=applyOptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector Elèctrico &gt; Longitud de lìneas de transmisiòn </t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Since we lack data on future transmission capacity build-out in the BAU case,</t>
-  </si>
-  <si>
-    <t>we assume a constant amount of transmission capacity.</t>
+    <t>Programa de Desarrollo del Sistema Eléctrico Nacional 2017-2031</t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>Secretaría de Energía (SENER)</t>
+  </si>
+  <si>
+    <t>https://www.gob.mx/sener/acciones-y-programas/programa-de-desarrollo-del-sistema-electrico-nacional-33462</t>
+  </si>
+  <si>
+    <t>Capítulo 2, Tabla 2.6.2 y 2.6.3</t>
+  </si>
+  <si>
+    <t>TABLA 2.6.3. LÍNEAS DE TRANSMISIÓN</t>
+  </si>
+  <si>
+    <t>(Kilómetros)</t>
+  </si>
+  <si>
+    <t>Líneas de transmisión</t>
+  </si>
+  <si>
+    <r>
+      <t>Longitud 2015</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Longitud 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>2/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TCA (%) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3/ </t>
+    </r>
+  </si>
+  <si>
+    <t>CFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmisión (161 a 400 kV) </t>
+  </si>
+  <si>
+    <t>Nivel de Tensión 400 kV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de Tensión 230 kV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de Tensión 161 kV </t>
+  </si>
+  <si>
+    <r>
+      <t>Transmisión (69 a 138 kV)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 4/ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de Tensión 138 kV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de Tensión 115 kV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de Tensión 85 kV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de Tensión 69 kV </t>
+  </si>
+  <si>
+    <t>Otras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivel de Tensión 400 kV </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total Transmisión </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>5/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Soberana Sans Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Datos revisados. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t>2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Información preliminar al cierre de 2016. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t>3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TCA: Tasa de Crecimiento Anual.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 4/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> La Subdirección de Transmisión (S.T.) de la CFE reporta las líneas de 400, 230 y 161 kV y en particular de acuerdo a convenio, líneas que atiende menores a 161 kV de longitud pequeña. </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t>5/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Soberana Sans"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Los totales pueden no coincidir por redondeo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fuente: Elaborado por la SENER con datos de la CFE.</t>
+  </si>
+  <si>
+    <t>Transmission  Lines</t>
+  </si>
+  <si>
+    <t>Estructura de la macro red prevista para 2022-2024</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Interconexión Sureste-Peninsular</t>
+  </si>
+  <si>
+    <t>Distance (km)</t>
+  </si>
+  <si>
+    <t>Distance (miles)</t>
+  </si>
+  <si>
+    <t>Grijalva-Kantenáh</t>
+  </si>
+  <si>
+    <t>Kantenáh-Leona Vicario</t>
+  </si>
+  <si>
+    <t>Manlio Fabio Altamirano-Olmeca</t>
+  </si>
+  <si>
+    <t>Temascal III-Olmeca</t>
+  </si>
+  <si>
+    <t>Noreste-Norte-Occidente</t>
+  </si>
+  <si>
+    <t>Seri-Hermosillo V</t>
+  </si>
+  <si>
+    <t>El Encino-Camargo II</t>
+  </si>
+  <si>
+    <t>Camargo II-Lerdo</t>
+  </si>
+  <si>
+    <t>Substations connections</t>
+  </si>
+  <si>
+    <t>Lerdo-Torreón Sur</t>
+  </si>
+  <si>
+    <t>Torreón Sur-Jerónimo Ortiz</t>
+  </si>
+  <si>
+    <t>Jerónimo Ortiz-Calera</t>
+  </si>
+  <si>
+    <t>Calera-Ixtlahuacán</t>
+  </si>
+  <si>
+    <t>Torreón Sur-Parras</t>
+  </si>
+  <si>
+    <t>Parras-Derramadero</t>
+  </si>
+  <si>
+    <t>Parras-Primero de Mayo</t>
+  </si>
+  <si>
+    <t>Primero de Mayo-Cañada</t>
+  </si>
+  <si>
+    <t>Potrerillos-Salamanca II</t>
+  </si>
+  <si>
+    <t>Cañada-Potrerillos</t>
+  </si>
+  <si>
+    <t>Noreste-Centro</t>
+  </si>
+  <si>
+    <t>Regiomontano-El Sauz</t>
+  </si>
+  <si>
+    <t>Pesquería-Regiomontano</t>
+  </si>
+  <si>
+    <t>Jacintos-Regiomontano</t>
+  </si>
+  <si>
+    <t>Tranmission Lines New Projects 2022-2024</t>
+  </si>
+  <si>
+    <t>Centro Nacional de Control de Energía (CENACE)</t>
+  </si>
+  <si>
+    <t>p.285-289</t>
+  </si>
+  <si>
+    <t>2017-2031</t>
+  </si>
+  <si>
+    <t>Programa de Ampliación y Modernización de la Red Nacional de Transmisión y Distribución</t>
+  </si>
+  <si>
+    <t>http://www.cenace.gob.mx/paginas/publicas/Planeacion/ProgramaRNT.aspx</t>
+  </si>
+  <si>
+    <t>Tension (kV)</t>
+  </si>
+  <si>
+    <t>2016 Transmission Capacity (kV*miles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Transmission Capacity (kV*miles) </t>
+  </si>
+  <si>
+    <t>BAU Transmission Capacity (kV*miles)</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>We obtained values for 2016 and 2024, the other values were obtained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interpolating and extrapolating. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,33 +437,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.6"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Helv"/>
     </font>
     <font>
-      <sz val="5.5"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="9.6"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="9.6"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Soberana Sans Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Soberana Sans Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Soberana Sans Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Soberana Sans Light"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,24 +516,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8C806"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1F1F1"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -166,95 +549,159 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFE1E1E1"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="medium">
-        <color rgb="FFE1E1E1"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="medium">
-        <color rgb="FFE1E1E1"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFE1E1E1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1E1E1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1E1E1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1E1E1"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFE1E1E1"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE1E1E1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFE1E1E1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFE1E1E1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFE1E1E1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,37 +709,108 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 20" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,7 +826,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -350,7 +868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,9 +901,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,6 +953,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,154 +1146,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
+      <c r="B3" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="27" style="5" customWidth="1"/>
+    <col min="3" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    <row r="2" spans="1:5">
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" thickBot="1">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <v>57449.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
-        <v>23640.54</v>
-      </c>
-      <c r="D4">
-        <f>400*C4</f>
-        <v>9456216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <v>27542.47</v>
-      </c>
-      <c r="D5">
-        <f>230*C5</f>
-        <v>6334768.1000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
-        <v>6266.04</v>
-      </c>
-      <c r="D6">
-        <f>138*C6</f>
-        <v>864713.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <f>SUM(D4:D6)</f>
-        <v>16655697.620000001</v>
-      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10">
+        <v>102657</v>
+      </c>
+      <c r="D5" s="10">
+        <v>102391</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-0.2591153063113083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" thickBot="1">
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13">
+        <v>52001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>52061</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.11538239649238058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16">
+        <v>24307</v>
+      </c>
+      <c r="D7" s="16">
+        <v>24324</v>
+      </c>
+      <c r="E7" s="17">
+        <v>6.9938700785776575E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18">
+        <v>27172</v>
+      </c>
+      <c r="D8" s="18">
+        <v>27214</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.15457088179007261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="19">
+        <v>522</v>
+      </c>
+      <c r="D9" s="19">
+        <v>523</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.19157088122605526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" thickBot="1">
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13">
+        <v>50656</v>
+      </c>
+      <c r="D10" s="13">
+        <v>50330</v>
+      </c>
+      <c r="E10" s="14">
+        <v>-0.6435565382185704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1608</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1152</v>
+      </c>
+      <c r="E11" s="17">
+        <v>-28.358208955223883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20">
+        <v>46147</v>
+      </c>
+      <c r="D12" s="20">
+        <v>46326</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.38789087047912396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="19">
+        <v>156</v>
+      </c>
+      <c r="D13" s="19">
+        <v>180</v>
+      </c>
+      <c r="E13" s="17">
+        <v>15.384615384615374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2745</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2672</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-2.6593806921675789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="22" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1736</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1742</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.34562211981565838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="19">
+        <v>390</v>
+      </c>
+      <c r="D16" s="19">
+        <v>390</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1346</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1352</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.44576523031203408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="24">
+        <v>104393</v>
+      </c>
+      <c r="D18" s="24">
+        <v>104133</v>
+      </c>
+      <c r="E18" s="14">
+        <v>-0.24905884494170749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="25" customFormat="1" ht="45" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" s="25" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -749,150 +1530,819 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="C2" s="38">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="36">
+        <v>400</v>
+      </c>
+      <c r="D4" s="43">
+        <f>'Transmission Lines'!D7</f>
+        <v>24324</v>
+      </c>
+      <c r="E4" s="44">
+        <f>D4/1.60934</f>
+        <v>15114.2704462699</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="36">
+        <v>230</v>
+      </c>
+      <c r="D5" s="43">
+        <f>'Transmission Lines'!D8</f>
+        <v>27214</v>
+      </c>
+      <c r="E5" s="44">
+        <f t="shared" ref="E5:E12" si="0">D5/1.60934</f>
+        <v>16910.03765518784</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="36">
+        <v>161</v>
+      </c>
+      <c r="D6" s="43">
+        <f>'Transmission Lines'!D9</f>
+        <v>523</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" si="0"/>
+        <v>324.97794126784891</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="36">
+        <v>138</v>
+      </c>
+      <c r="D7" s="43">
+        <f>'Transmission Lines'!D11</f>
+        <v>1152</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="0"/>
+        <v>715.8213926205774</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="36">
+        <v>115</v>
+      </c>
+      <c r="D8" s="43">
+        <f>'Transmission Lines'!D12</f>
+        <v>46326</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" si="0"/>
+        <v>28785.713398038948</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="36">
+        <v>85</v>
+      </c>
+      <c r="D9" s="43">
+        <f>'Transmission Lines'!D13</f>
+        <v>180</v>
+      </c>
+      <c r="E9" s="44">
+        <f t="shared" si="0"/>
+        <v>111.84709259696521</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="36">
+        <v>69</v>
+      </c>
+      <c r="D10" s="43">
+        <f>'Transmission Lines'!D14</f>
+        <v>2672</v>
+      </c>
+      <c r="E10" s="44">
+        <f t="shared" si="0"/>
+        <v>1660.3079523282836</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="36">
+        <v>400</v>
+      </c>
+      <c r="D11" s="43">
+        <f>'Transmission Lines'!D16</f>
+        <v>390</v>
+      </c>
+      <c r="E11" s="44">
+        <f t="shared" si="0"/>
+        <v>242.33536729342464</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="36">
+        <v>230</v>
+      </c>
+      <c r="D12" s="43">
+        <f>'Transmission Lines'!D17</f>
+        <v>1352</v>
+      </c>
+      <c r="E12" s="44">
+        <f t="shared" si="0"/>
+        <v>840.09593995053876</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="66" customHeight="1">
+      <c r="C14" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="36">
+        <f>SUMPRODUCT(C4:C12,E4:E12)</f>
+        <v>13810703.145388793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="36">
+        <v>500</v>
+      </c>
+      <c r="D5" s="36">
+        <v>860</v>
+      </c>
+      <c r="E5" s="41">
+        <f>D5/1.60934</f>
+        <v>534.38055351883384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="39"/>
+      <c r="B6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="36">
+        <v>400</v>
+      </c>
+      <c r="D6" s="36">
+        <v>71</v>
+      </c>
+      <c r="E6" s="41">
+        <f t="shared" ref="E6:E24" si="0">D6/1.60934</f>
+        <v>44.117464302136277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="39"/>
+      <c r="B7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="36">
+        <v>400</v>
+      </c>
+      <c r="D7" s="36">
+        <v>20</v>
+      </c>
+      <c r="E7" s="41">
+        <f t="shared" si="0"/>
+        <v>12.427454732996136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="39"/>
+      <c r="B8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="36">
+        <v>400</v>
+      </c>
+      <c r="D8" s="36">
+        <v>105</v>
+      </c>
+      <c r="E8" s="41">
+        <f t="shared" si="0"/>
+        <v>65.244137348229714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="36">
+        <v>400</v>
+      </c>
+      <c r="D9" s="36">
+        <v>20</v>
+      </c>
+      <c r="E9" s="41">
+        <f t="shared" si="0"/>
+        <v>12.427454732996136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="39"/>
+      <c r="B10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="36">
+        <v>400</v>
+      </c>
+      <c r="D10" s="36">
+        <v>135</v>
+      </c>
+      <c r="E10" s="41">
+        <f t="shared" si="0"/>
+        <v>83.885319447723916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="39"/>
+      <c r="B11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="36">
+        <v>400</v>
+      </c>
+      <c r="D11" s="36">
+        <v>310</v>
+      </c>
+      <c r="E11" s="41">
+        <f t="shared" si="0"/>
+        <v>192.62554836144008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="39"/>
+      <c r="B12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="36">
+        <v>400</v>
+      </c>
+      <c r="D12" s="36">
+        <v>35</v>
+      </c>
+      <c r="E12" s="41">
+        <f t="shared" si="0"/>
+        <v>21.748045782743237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="39"/>
+      <c r="B13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="36">
+        <v>400</v>
+      </c>
+      <c r="D13" s="36">
+        <v>225</v>
+      </c>
+      <c r="E13" s="41">
+        <f t="shared" si="0"/>
+        <v>139.80886574620652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="39"/>
+      <c r="B14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="36">
+        <v>400</v>
+      </c>
+      <c r="D14" s="36">
+        <v>245</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="0"/>
+        <v>152.23632047920265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="39"/>
+      <c r="B15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="36">
+        <v>400</v>
+      </c>
+      <c r="D15" s="36">
+        <v>260</v>
+      </c>
+      <c r="E15" s="41">
+        <f t="shared" si="0"/>
+        <v>161.55691152894977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="39"/>
+      <c r="B16" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="36">
+        <v>400</v>
+      </c>
+      <c r="D16" s="36">
+        <v>138</v>
+      </c>
+      <c r="E16" s="41">
+        <f t="shared" si="0"/>
+        <v>85.749437657673326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="39"/>
+      <c r="B17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="36">
+        <v>400</v>
+      </c>
+      <c r="D17" s="36">
+        <v>120</v>
+      </c>
+      <c r="E17" s="41">
+        <f t="shared" si="0"/>
+        <v>74.564728397976808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="39"/>
+      <c r="B18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="36">
+        <v>400</v>
+      </c>
+      <c r="D18" s="36">
+        <v>210</v>
+      </c>
+      <c r="E18" s="41">
+        <f t="shared" si="0"/>
+        <v>130.48827469645943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="39"/>
+      <c r="B19" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="36">
+        <v>400</v>
+      </c>
+      <c r="D19" s="36">
+        <v>220</v>
+      </c>
+      <c r="E19" s="41">
+        <f t="shared" si="0"/>
+        <v>136.70200206295749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="39"/>
+      <c r="B20" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="36">
+        <v>400</v>
+      </c>
+      <c r="D20" s="36">
+        <v>146</v>
+      </c>
+      <c r="E20" s="41">
+        <f t="shared" si="0"/>
+        <v>90.720419550871782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="36">
+        <v>400</v>
+      </c>
+      <c r="D21" s="36">
+        <v>76</v>
+      </c>
+      <c r="E21" s="41">
+        <f t="shared" si="0"/>
+        <v>47.224327985385315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="36">
+        <v>500</v>
+      </c>
+      <c r="D22" s="36">
+        <v>700</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" si="0"/>
+        <v>434.96091565486472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="40"/>
+      <c r="B23" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="36">
+        <v>400</v>
+      </c>
+      <c r="D23" s="36">
+        <v>35</v>
+      </c>
+      <c r="E23" s="41">
+        <f t="shared" si="0"/>
+        <v>21.748045782743237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="40"/>
+      <c r="B24" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="36">
+        <v>400</v>
+      </c>
+      <c r="D24" s="36">
+        <v>180</v>
+      </c>
+      <c r="E24" s="41">
+        <f t="shared" si="0"/>
+        <v>111.84709259696521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A26" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="36">
+        <f>SUMPRODUCT(C5:C24,E5:E24)</f>
+        <v>1118719.4750643121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="B1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="R1">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="S1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4">
-        <f>Data!D7</f>
-        <v>16655697.620000001</v>
+        <f>'TL Calculations'!D14</f>
+        <v>13810703.145388793</v>
       </c>
       <c r="C2" s="4">
-        <f>B$2</f>
-        <v>16655697.620000001</v>
+        <f t="shared" ref="C2:AJ2" si="0">($J$2-$B$2)/($J$1-$B$1)+B2</f>
+        <v>13950543.079771832</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:S2" si="0">C$2</f>
-        <v>16655697.620000001</v>
+        <f t="shared" si="0"/>
+        <v>14090383.01415487</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>14230222.948537908</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>14370062.882920947</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>14509902.817303985</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>14649742.751687024</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>14789582.686070062</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <f>'TL New Projects'!B26+'TL Calculations'!D14</f>
+        <v>14929422.620453104</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <f>($J$2-$B$2)/($J$1-$B$1)+J2</f>
+        <v>15069262.554836143</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>15209102.489219181</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>15348942.42360222</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>15488782.357985258</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>15628622.292368297</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>15768462.226751335</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>15908302.161134373</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>16048142.095517412</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>16655697.620000001</v>
+        <v>16187982.02990045</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>16327821.964283489</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>16467661.898666527</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>16607501.833049566</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>16747341.767432604</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>16887181.701815642</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="0"/>
+        <v>17027021.636198681</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="0"/>
+        <v>17166861.570581719</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="0"/>
+        <v>17306701.504964758</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="0"/>
+        <v>17446541.439347796</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="0"/>
+        <v>17586381.373730835</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="0"/>
+        <v>17726221.308113873</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="0"/>
+        <v>17866061.242496911</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="0"/>
+        <v>18005901.17687995</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="0"/>
+        <v>18145741.111262988</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>18285581.045646027</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>18425420.980029065</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="0"/>
+        <v>18565260.914412104</v>
       </c>
     </row>
   </sheetData>
